--- a/Content/DataTable/Client/client_tower_status_info.xlsx
+++ b/Content/DataTable/Client/client_tower_status_info.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sub\기획서 작업\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SProjectDesign\Client\SProject\Content\DataTable\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3308359C-EC80-4CBF-A829-883881121065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22474BC9-ADBF-4E9E-AB66-6F0A3FF14AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="105" yWindow="600" windowWidth="8160" windowHeight="11385" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nomal" sheetId="1" r:id="rId1"/>
+    <sheet name="Normal" sheetId="1" r:id="rId1"/>
+    <sheet name="normal_desc" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,14 +88,6 @@
     <t>;레벨</t>
   </si>
   <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;등급</t>
   </si>
   <si>
@@ -135,6 +126,18 @@
   </si>
   <si>
     <t>;키값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;INDEX 값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,12 +178,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,14 +211,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -229,6 +223,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,149 +544,245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F27775-B38A-425D-9D8A-9CD959A261C6}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="2" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="2" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
